--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2567.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2567.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.009729798119084</v>
+        <v>1.265550255775452</v>
       </c>
       <c r="B1">
-        <v>1.580392305626725</v>
+        <v>1.011569857597351</v>
       </c>
       <c r="C1">
-        <v>3.481365502961115</v>
+        <v>2.878094673156738</v>
       </c>
       <c r="D1">
-        <v>2.150797780070826</v>
+        <v>5.149636745452881</v>
       </c>
       <c r="E1">
-        <v>0.7526582281580756</v>
+        <v>0.9347149729728699</v>
       </c>
     </row>
   </sheetData>
